--- a/Screens/Bankruptcy.xlsx
+++ b/Screens/Bankruptcy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Finance/Macro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_F25DC773A252ABDACC1048FC995B449E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35140069-B8AE-42EF-A328-10D947FB841E}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="11_F25DC773A252ABDACC1048FC995B449E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B293BD92-78BB-4FC9-B38E-C7E7658EF411}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -2051,6 +2051,148 @@
         <a:xfrm>
           <a:off x="638176" y="209550"/>
           <a:ext cx="5581650" cy="2354501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>512523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468469</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5E18EB-A604-7740-7C78-11F359EF6FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7218123" y="2390776"/>
+          <a:ext cx="4832746" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EAEE03-8906-7EFF-344E-A8882E2ABF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8534400" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>494682</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED61744-0406-30F5-9F2C-FEF55FCC6D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200282" y="276225"/>
+          <a:ext cx="4877417" cy="2005944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2327,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E4FFF8-DC59-4801-B5C9-2B0B664510E2}">
   <dimension ref="B16:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
